--- a/Technomarket_Test_Csenario.xlsx
+++ b/Technomarket_Test_Csenario.xlsx
@@ -42,9 +42,6 @@
     <t>Empty email and empty password- "not correct username/email or password" JS = ON</t>
   </si>
   <si>
-    <t>Test Accesability / Tab / Tab + Shift / Enter</t>
-  </si>
-  <si>
     <t>Login with the shortest email possible</t>
   </si>
   <si>
@@ -117,15 +114,9 @@
     <t>Verify that the client should not be able to login with the old password after changing the password</t>
   </si>
   <si>
-    <t>performance</t>
-  </si>
-  <si>
     <t>UI</t>
   </si>
   <si>
-    <t>Accesability</t>
-  </si>
-  <si>
     <t>Test UI and Design /  Verify if the font, text color, and color coding of the Login page is as per the standard.</t>
   </si>
   <si>
@@ -163,6 +154,15 @@
   </si>
   <si>
     <t>Verify if user is logged out  he is loged out of site in the same browser and same window</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Test Accessability / Tab / Tab + Shift / Enter</t>
+  </si>
+  <si>
+    <t>Performance</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,13 +512,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -526,18 +526,18 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -545,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -625,7 +625,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -633,7 +633,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -641,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -649,7 +649,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -657,7 +657,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -665,7 +665,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -673,7 +673,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -689,18 +689,18 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -740,7 +740,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -756,7 +756,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -764,7 +764,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -772,7 +772,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -780,7 +780,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
@@ -788,7 +788,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -796,7 +796,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
@@ -812,7 +812,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
@@ -820,7 +820,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
@@ -828,7 +828,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
@@ -836,7 +836,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
@@ -844,7 +844,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
@@ -852,7 +852,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
@@ -868,12 +868,12 @@
         <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Technomarket_Test_Csenario.xlsx
+++ b/Technomarket_Test_Csenario.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,22 +529,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Technomarket_Test_Csenario.xlsx
+++ b/Technomarket_Test_Csenario.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,11 +548,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -564,11 +564,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Technomarket_Test_Csenario.xlsx
+++ b/Technomarket_Test_Csenario.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Registration" sheetId="2" r:id="rId2"/>
+    <sheet name="Profile" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Login with correct email and password</t>
   </si>
@@ -33,15 +35,6 @@
     <t>Existing email and wrong password- "not correct username/email or password" JS = ON</t>
   </si>
   <si>
-    <t>Existing email and empty password- "not correct username/email or password" JS = ON</t>
-  </si>
-  <si>
-    <t>Empty email and correct password- "not correct username/email or password" JS = ON</t>
-  </si>
-  <si>
-    <t>Empty email and empty password- "not correct username/email or password" JS = ON</t>
-  </si>
-  <si>
     <t>Login with the shortest email possible</t>
   </si>
   <si>
@@ -72,12 +65,6 @@
     <t>Login with password with empty space at the end - should be trimmed- logged-in successfully</t>
   </si>
   <si>
-    <t>Use SQL injection for email field- "not correct username/email or password", JS = ON</t>
-  </si>
-  <si>
-    <t>Use SQL injection for password field- "not correct username/email or password", JS = ON</t>
-  </si>
-  <si>
     <t>Verify login page opens under 5 seconds for standard user load</t>
   </si>
   <si>
@@ -163,6 +150,24 @@
   </si>
   <si>
     <t>Performance</t>
+  </si>
+  <si>
+    <t>NotRegistered Email and Password of registered user</t>
+  </si>
+  <si>
+    <t>Existing email and white spaces password- "not correct username/email or password" JS = ON</t>
+  </si>
+  <si>
+    <t>White spaces email and correct password- "not correct username/email or password" JS = ON</t>
+  </si>
+  <si>
+    <t>White spaces email and White spaces password- "not correct username/email or password" JS = ON</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Verify when user loged out from profile Login button is displayed</t>
   </si>
 </sst>
 </file>
@@ -178,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +226,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,13 +530,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -526,18 +544,18 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -545,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -556,11 +574,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -572,312 +590,344 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="8">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="8">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="8">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="5">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
+      <c r="C19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
+      <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="6">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="6">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="6">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="6">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="6">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="6">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>30</v>
+      <c r="C34" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>33</v>
+      <c r="C35" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>34</v>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="1">
+      <c r="B37" s="6">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
-        <v>35</v>
+      <c r="C37" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
+      <c r="B38" s="6">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="1">
-        <v>39</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="1">
-        <v>40</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="1">
-        <v>41</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="1">
-        <v>42</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="1">
-        <v>43</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="1">
-        <v>44</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="78.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Technomarket_Test_Csenario.xlsx
+++ b/Technomarket_Test_Csenario.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Login with correct email and password</t>
   </si>
@@ -107,21 +107,12 @@
     <t>Test UI and Design /  Verify if the font, text color, and color coding of the Login page is as per the standard.</t>
   </si>
   <si>
-    <t>Verify you can close login form with Escape key</t>
-  </si>
-  <si>
     <t>Verify if a user cannot enter the characters more than the specified range in each field (Username and Password).</t>
   </si>
   <si>
-    <t xml:space="preserve"> Verify if a user can enter the charactersin the specified range in each field (Username and Password).</t>
-  </si>
-  <si>
     <t>Verify the login page by pressing ‘Back button’ of the browser. It should not allow you to enter into the system once you log out.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Verify if a user should not be allowed to log in with different credentials from the same browser at the same time.</t>
-  </si>
-  <si>
     <t>Verify that the login screen contains elements such as Username, Password, Sign in button, Remember password check box, Forgot password link, and Create an account link.</t>
   </si>
   <si>
@@ -168,6 +159,21 @@
   </si>
   <si>
     <t>Verify when user loged out from profile Login button is displayed</t>
+  </si>
+  <si>
+    <t>Active Buttons are grey</t>
+  </si>
+  <si>
+    <t>Can't implement it</t>
+  </si>
+  <si>
+    <t>Verify you can close login form with Escape key or By clicking on the main page</t>
+  </si>
+  <si>
+    <t>Verify if a user can enter the charactersin the specified range in each field (Username and Password).</t>
+  </si>
+  <si>
+    <t>Verify if a user should not be allowed to log in with different credentials from the same browser at the same time.</t>
   </si>
 </sst>
 </file>
@@ -515,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,18 +550,18 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,7 +609,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -611,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -619,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -627,12 +633,12 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="8">
         <v>13</v>
@@ -643,7 +649,7 @@
     </row>
     <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" s="8">
         <v>14</v>
@@ -654,7 +660,7 @@
     </row>
     <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B15" s="8">
         <v>15</v>
@@ -665,7 +671,7 @@
     </row>
     <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" s="8">
         <v>16</v>
@@ -676,7 +682,7 @@
     </row>
     <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5">
         <v>17</v>
@@ -725,28 +731,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6">
+    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
         <v>23</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="6">
+      <c r="C23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="8">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="6">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="8">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>22</v>
+      <c r="C25" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -754,7 +766,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -762,7 +774,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -770,7 +782,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -778,7 +790,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,7 +798,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,7 +806,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -802,15 +814,15 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <v>33</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>32</v>
+      <c r="C33" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
@@ -818,7 +830,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -826,7 +838,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
@@ -834,28 +846,36 @@
         <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="6">
         <v>37</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>38</v>
+      <c r="C37" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="6">
         <v>38</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
+      <c r="C39" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Technomarket_Test_Csenario.xlsx
+++ b/Technomarket_Test_Csenario.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Login with correct email and password</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Verify that proper labels are displayed next to all parts of login</t>
   </si>
   <si>
-    <t xml:space="preserve"> Verify that the password is in *** format when entered</t>
-  </si>
-  <si>
     <t>Verify that the client should not be able to login with the old password after changing the password</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Verify if a user cannot enter the characters more than the specified range in each field (Username and Password).</t>
   </si>
   <si>
-    <t>Verify the login page by pressing ‘Back button’ of the browser. It should not allow you to enter into the system once you log out.</t>
-  </si>
-  <si>
     <t>Verify that the login screen contains elements such as Username, Password, Sign in button, Remember password check box, Forgot password link, and Create an account link.</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>Verify that User is redirected to Create an account page when clicking on Sign up / Create an account link</t>
   </si>
   <si>
-    <t>Verify if user is logged out  he is loged out of site in the same browser and same window</t>
-  </si>
-  <si>
     <t>Accessibility</t>
   </si>
   <si>
@@ -174,16 +165,45 @@
   </si>
   <si>
     <t>Verify if a user should not be allowed to log in with different credentials from the same browser at the same time.</t>
+  </si>
+  <si>
+    <t>abv1@yopmail.com</t>
+  </si>
+  <si>
+    <t>Verify the email can be copy-pasted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the password is in *** format when entered / Type of the field is Password</t>
+  </si>
+  <si>
+    <t>Verify if user is logged out he is loged out of site in the same browser at the same time</t>
+  </si>
+  <si>
+    <t>Verify that User is redirected to Forgotten Password page when clicking on Forgotten Password Button</t>
+  </si>
+  <si>
+    <t>There isn't limit</t>
+  </si>
+  <si>
+    <t>Verify that the client should be able to login with the new password after changing the password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,31 +238,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,362 +557,378 @@
     <col min="3" max="3" width="108.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5">
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="6">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="C30" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>33</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
         <v>37</v>
       </c>
-      <c r="B3" s="5">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C37" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C38" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>39</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="8">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="8">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="8">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="8">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="5">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
-        <v>21</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
-        <v>22</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="8">
-        <v>24</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="8">
-        <v>25</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="6">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="6">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="6">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="6">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="6">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="6">
+      <c r="C40" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="6">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="6">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="6">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="6">
-        <v>35</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="6">
-        <v>36</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="6">
-        <v>37</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="6">
-        <v>38</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="6">
-        <v>39</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D32" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:C6"/>
+  <dimension ref="C2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,28 +938,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
